--- a/TerminalDb.xlsx
+++ b/TerminalDb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3fe201450995079/2. Travail - Perso/4. UiPath/Senyone/1. Démos/Apps Bank Customer Teller/DEMO_APP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Honorablecon\Documents\UiPath\Logging in  S400\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5E3F3A83-D86A-4016-A4C0-EDE74EADB928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B3567F-D023-4790-A92B-EE11DCD734C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420130E7-1B7C-480D-B809-B9FCF2A9570D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="2" xr2:uid="{89E43422-288E-453A-8F53-E5F403E1DC86}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14380" windowHeight="7810" activeTab="2" xr2:uid="{89E43422-288E-453A-8F53-E5F403E1DC86}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -1229,19 +1229,19 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.4609375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="F13" s="4"/>
@@ -1622,19 +1622,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.69140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.7265625" style="6" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.4609375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.69140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>3</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>3</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>3</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>4</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>4</v>
       </c>
@@ -2005,7 +2005,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>4</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>4</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>4</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>5</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>5</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>5</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>7</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>7</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>7</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>9</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>10</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>10</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>11</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>11</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>11</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>11</v>
       </c>
@@ -2742,12 +2742,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>60</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2795,12 +2795,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CFEEA42CC3706B4A8DDC3F636752D91E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="72283038c71ead442249d434de5fba60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ceae222e-0da4-4fac-adab-c3f956e366b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="536a1845df7e90f0164d19021deac0e6" ns2:_="">
     <xsd:import namespace="ceae222e-0da4-4fac-adab-c3f956e366b6"/>
@@ -2932,6 +2926,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9AF137-31AF-4849-9B7D-4130825EB6BF}">
   <ds:schemaRefs>
@@ -2941,6 +2941,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4487384D-1748-498A-8835-93120A6B2AE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ceae222e-0da4-4fac-adab-c3f956e366b6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B101FFE-21C4-413B-9DAC-1B77FEF2FD10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2955,8 +2973,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4487384D-1748-498A-8835-93120A6B2AE6}"/>
 </file>